--- a/project/BC_Excel_Sheets/Fix_Costs.xlsx
+++ b/project/BC_Excel_Sheets/Fix_Costs.xlsx
@@ -29,9 +29,6 @@
     <t>Fix Costs</t>
   </si>
   <si>
-    <t>JetBrain Webstorm license</t>
-  </si>
-  <si>
     <t>Energy &amp; Internet</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Total fix costs</t>
+  </si>
+  <si>
+    <t>JetBrains Webstorm license</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JetBrain Webstorm license</c:v>
+                  <c:v>JetBrains Webstorm license</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1449,38 +1449,38 @@
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>249</v>
@@ -1493,9 +1493,9 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -1508,9 +1508,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
         <f>D5+D6+D7</f>
         <v>2394</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
   </sheetData>
